--- a/Equipe301.xlsx
+++ b/Equipe301.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24004"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{FA34F46B-4FBD-4D45-A4CE-032486D68F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{09B5571C-3BC8-440E-A749-D46A8E40D52B}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="13_ncr:1_{FA34F46B-4FBD-4D45-A4CE-032486D68F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{456A1770-F341-4014-801A-D4D4904BF0CF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Sudoku" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="246">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -301,6 +301,9 @@
   <si>
     <t xml:space="preserve">ToolBarComponent ne devrait pas gérer la logique de tous les services du ToolBarService mais plutôt déléguer le travail.
 </t>
+  </si>
+  <si>
+    <t>Problème du sprint 1 non fixé</t>
   </si>
   <si>
     <t>Le nom de la classe est approprié. _x005F_x000D_
@@ -320,10 +323,19 @@
 Plusieurs IconDefinitions ne semble pas être inutilisés</t>
   </si>
   <si>
+    <t>Problème du sprint 1 non fixé
+premNumberOfSides polygonService inutilisé
+eventListenerIsSet RectangleSelection/Command inutilisé</t>
+  </si>
+  <si>
     <t>La classe minimise l'accessibilité des membres (public/private/protected)</t>
   </si>
   <si>
     <t>Ne semble pas avoir de gestion d'accessibilité des membres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne semble pas avoir de gestion d'accessibilité des membres
+</t>
   </si>
   <si>
     <t>Les valeurs par défaut des attributs de la classe sont initialisés de manière consistante (soit dans le constructeur partout, soit à la définition)</t>
@@ -333,6 +345,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Il ne semble pas avoir de constance dans l'initialisation des attributs.
+</t>
+  </si>
+  <si>
     <t>Total de la catégorie</t>
   </si>
   <si>
@@ -356,7 +372,7 @@
     <t>Tous les paramètres de fonction sont utilisés</t>
   </si>
   <si>
-    <t>Exceptions</t>
+    <t>Exceptions (WBD)</t>
   </si>
   <si>
     <t>Les exceptions sont claires et spécifiques (Pas d'erreurs génériques). Les messages d'erreur affichés à l'utilisateur sont compréhensible pour l'utilisateur moyen (pas de code d'erreur serveur, mais plutôt un message descriptif du genre "Un problème est survenu lors de la sauvegarde du dessin")</t>
@@ -366,6 +382,10 @@
   </si>
   <si>
     <t>Tout code asynchrone (Promise, Observable ou Event) doit être géré adéquatement.</t>
+  </si>
+  <si>
+    <t>index.controller endpoint DELETE '/drawing/:id', Aucune gestion du code asynchrone. Que fait-on si deleteDoc ou deleteDrawingFromServer échoue? Idéalement, il faudrait attendre que les deux promesses soient complétées avant de retourner un "OK"
+selection.ts méthode waitTimer est complètement inutile dans son état actuel. Si vous voulez attendre le délai dans les méthodes moveRight, moveLeft, etc., il faudrait transformer cette méthode pour la rendre async et compléter la promesse (resolve promise) seulement lorsque le timeout est appelé. Ensuite, les méthodes appelantes pourraient "await" l'appel de la méthode et devenir async eux aussi.</t>
   </si>
   <si>
     <t>Variables (WBD)</t>
@@ -378,11 +398,18 @@
 Il faudrait les regrouper en groupe logique et les exporter de la même manière pour faciliter la réutilisation. Comme ça, la constante MAX_NUMBER_IN_LIST_OF_LAST_USED ne serait pas redéfinie dans plusieurs fichiers comme en ce moment.</t>
   </si>
   <si>
+    <t>filter.service.ts DRAWINGS_URL devrait utiliser une variable d'environnement pour le BASE_URL du serveur
+Même problèmes pour form.component.ts</t>
+  </si>
+  <si>
     <t>Les constantes doivent être utilisées seulement dans un contexte lié à la logique d'affaire. (mauvais exemple: const DEUX = 2, bon exemple : const WAIT_TIME = 5000)</t>
   </si>
   <si>
     <t xml:space="preserve">color-slider.component utilisation d'une constante exportée pour defaultLineWidth plutôt qu'une variable const simple dans le corps de la méthode
 ZERO, FORT_FIVE, etc. dans line-helper ne sont pas justifiables. Comme vous avez déjà "POSSIBLE_ANGLES" comme tableau, les valeurs numériques pourraient y être directement insérées. </t>
+  </si>
+  <si>
+    <t>Mêmes problèmes que sprint 1</t>
   </si>
   <si>
     <t>L'utilisation d'une variable locale (let ou const) doit être justifiée par son utilisation.</t>
@@ -395,7 +422,16 @@
 - square-helper.service.ts const "newPos" inutile avant un return</t>
   </si>
   <si>
+    <t>Color-slider.component méthode draw (const defaultLineWidth)
+ellipse-selection.service.ts méthode onMouseUp const mousePosition
+eraser.service méthode findCoordinate
+export-drawing.component méthode exportDrawing</t>
+  </si>
+  <si>
     <t>Les variables et les constantes ont des noms explicites et sont uniformes dans tous les fichiers. Le format à utiliser pour les variables est le camelCase et pour les constantes est SCREAMING_SNAKE_CASE. La troncation des noms ne doit pas être excessive. (ex: utiliser background au lieu de seulement bg)</t>
+  </si>
+  <si>
+    <t>pencil-service.ts laspoint (lastpoint) et nexpoint (nextpoint) devraient être en camelCase et corriger les "t" manquant</t>
   </si>
   <si>
     <t>Expression Booléennes - WBD</t>
@@ -406,6 +442,9 @@
   <si>
     <t>color-picker.component.ts méthode onLeftClickPreviousColor comparaison à true directement
 color-palette.component.ts méthode onLeftClickDown deux comparaisons directement avec true ou false</t>
+  </si>
+  <si>
+    <t>Même problème que sprint 1</t>
   </si>
   <si>
     <t>Minimiser la logique booléenne négative (ex: éviter "if (!notFound(...))")</t>
@@ -432,21 +471,33 @@
     <t>Attention, beaucoup de services avec un "-service" et d'autres avec ".service".</t>
   </si>
   <si>
+    <t>line-service.service.ts</t>
+  </si>
+  <si>
     <t>Il y a une séparation entre le code typescript, html et css.</t>
   </si>
   <si>
     <t>Le code est correctement indenté et organisé en groupes logiques.</t>
   </si>
   <si>
+    <t>Beaucoup de fichiers à formatter dans le client (.scss et .html) en roulant la commande "npm run format"</t>
+  </si>
+  <si>
     <t>La langue utilisée pour le nom des variables, des classes et des fonctions doit être uniforme pour tout le code source (les commentaires peuvent différer de la langue du code source mais doivent tout de même rester uniformes)</t>
   </si>
   <si>
     <t>Toolbar component "CONTOUR_VALUE" en français.</t>
   </si>
   <si>
+    <t>Attention, beaucoup de fautes d'anglais</t>
+  </si>
+  <si>
     <t>Les commentaires sont pertinents</t>
   </si>
   <si>
+    <t>polygon.service.ts méthode drawLine "partie couleur" non pertinent</t>
+  </si>
+  <si>
     <t>Le programme utilise des enums lorsqu'elles sont nécessaires</t>
   </si>
   <si>
@@ -457,6 +508,11 @@
   </si>
   <si>
     <t>Il n'y a pas de duplication de code.</t>
+  </si>
+  <si>
+    <t>line-helper.service.ts lignes 36-39 et lignes 80-84 peuvent être extraites en méthode
+toolbar.component.ts les méthodes setRectangleStyle, setEllipseStyle et setPolygonStyle ont exactement le même code à l'exception du service auquel les valeurs sont réglées.
+styles.scss duplication des règles de style</t>
   </si>
   <si>
     <t>Aucune erreur TSLint non justifiée. (Des commentaires TODO sont acceptables). (25% de la note sera retirée par type d'erreur présente)
@@ -472,6 +528,11 @@
 color.service.ts méthode pushToQueueOnConfirm early-return dans le premier if pour réduire l'imbrication inutile.</t>
   </si>
   <si>
+    <t>tool-manager.service.ts méthode clearArrays
+rectangle-selection.service.ts méthode onMouseMove inversion du if et early-return
+Mêmes problèmes que sprint 1</t>
+  </si>
+  <si>
     <t>Le logiciel a une performance acceptable.</t>
   </si>
   <si>
@@ -487,7 +548,11 @@
     <t>Le repo git ne contient pas de branches mortes (stale branches).</t>
   </si>
   <si>
-    <t>Vous devez supprimer vos branches inutilisés</t>
+    <t xml:space="preserve">Vous devez supprimer vos branches inutilisés
+</t>
+  </si>
+  <si>
+    <t>Plusieurs branches non supprimés du sprint2</t>
   </si>
   <si>
     <t>Bonne utilisation de Gitlab : des Merge Requests sont utilisées pour fusionner vers la branche de production,
@@ -600,21 +665,48 @@
     <t>Ne build pas</t>
   </si>
   <si>
+    <t>Antoine Lamontagne</t>
+  </si>
+  <si>
+    <t>7a80122ce55ae38dd56f8b33d7ad63aecc7a1ee7</t>
+  </si>
+  <si>
     <t>Outil - Aérosol</t>
   </si>
   <si>
+    <t>-0.05 Le raccourci de polygone et aérosol est inversé
+-0.02 Il devrait être impossible d'avoir un demi pixel pour les goutelettes.</t>
+  </si>
+  <si>
     <t>Outil- Sélection par rectangle et ellipse</t>
   </si>
   <si>
+    <t>-0.05 La sélection peut dépasser la zone de dessin.
+-0.05 L'interieur de la sélection ne représente pas la sélection lorsqu'on sélectionne dans une autre direction qu'en haut à gauche vers en bas a droite.
+-0.05 La selection de l'ellipse fait apparaitre du blanc aux pixels hors de l'ellipse.
+-0.05 Esc n'est pas pris en compte</t>
+  </si>
+  <si>
     <t>Outil-Polygone</t>
   </si>
   <si>
+    <t>-0.05 Le raccourci de polygone et aérosol est inversé
+-0.05 L'épaisseur n'est pas prise en compte dans le périmètre circulaire.
+-0.05 Le contour dépasse de la forme lorsqu'il est trop épais</t>
+  </si>
+  <si>
     <t>Outi-Pipette</t>
   </si>
   <si>
+    <t>-0.05 Il n'est pas possible d'être sur un pixel, nous sommes toujours sur le coin de ceux ci</t>
+  </si>
+  <si>
     <t>Exporter le dessin</t>
   </si>
   <si>
+    <t>-0.05 Il est possbile d'ouvrir plusieurs modales.</t>
+  </si>
+  <si>
     <t>Déplacement d'une sélection</t>
   </si>
   <si>
@@ -624,13 +716,32 @@
     <t>Base de données</t>
   </si>
   <si>
+    <t>TEST
+L'erreur qu'une supression peut engendrer n'est pas testée</t>
+  </si>
+  <si>
     <t>Carrousel de dessins</t>
   </si>
   <si>
+    <t>-0.05 Il est possible d'ouvrir plusieurs modales.
+-0.01 Hello apparait dans les tags si aucune image n'est présente
+TEST
+loadDrawing n'est pas completement testée et openCarousel n'est pas testée</t>
+  </si>
+  <si>
     <t>Sauvegarder le dessin sur serveur</t>
   </si>
   <si>
+    <t>-0.05 Il est possible d'ouvrir plusieurs modales.
+TEST
+dataURItoBlob et save ne sont pas testées</t>
+  </si>
+  <si>
     <t>Annuler-Refaire</t>
+  </si>
+  <si>
+    <t>TEST
+l'outil n'est pas tellement testé</t>
   </si>
   <si>
     <t>Anciennes fonctionnalités brisées</t>
@@ -2815,9 +2926,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2985,6 +3093,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3059,9 +3170,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
-    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5610,7 +5721,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5675,22 +5786,22 @@
       </c>
       <c r="B5" s="153">
         <f>(Fonctionnalités!E35)</f>
-        <v>0</v>
+        <v>0.76780000000000004</v>
       </c>
       <c r="C5" s="154">
         <f>'Assurance Qualité'!D60</f>
-        <v>0</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="D5" s="154">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.72267999999999999</v>
       </c>
       <c r="F5" s="150">
         <v>25</v>
       </c>
       <c r="G5" s="151">
         <f>D5*F5</f>
-        <v>0</v>
+        <v>18.067</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
@@ -5742,8 +5853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5751,8 +5862,9 @@
     <col min="1" max="1" width="68.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
     <col min="4" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="65.5703125" customWidth="1"/>
-    <col min="11" max="12" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="11" max="11" width="54.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
@@ -5867,7 +5979,7 @@
       <c r="H7" s="163"/>
       <c r="I7" s="163"/>
     </row>
-    <row r="8" spans="1:13" ht="45">
+    <row r="8" spans="1:13" ht="105">
       <c r="A8" s="174" t="s">
         <v>84</v>
       </c>
@@ -5877,7 +5989,9 @@
       <c r="C8" s="176">
         <v>3</v>
       </c>
-      <c r="D8" s="177"/>
+      <c r="D8" s="177">
+        <v>0.75</v>
+      </c>
       <c r="E8" s="176">
         <v>3</v>
       </c>
@@ -5890,10 +6004,13 @@
       <c r="J8" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="60">
+      <c r="K8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45">
       <c r="A9" s="174" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" s="180">
         <v>0.75</v>
@@ -5901,7 +6018,9 @@
       <c r="C9" s="181">
         <v>2</v>
       </c>
-      <c r="D9" s="182"/>
+      <c r="D9" s="182">
+        <v>0.75</v>
+      </c>
       <c r="E9" s="181">
         <v>2</v>
       </c>
@@ -5912,12 +6031,15 @@
       <c r="H9" s="179"/>
       <c r="I9" s="179"/>
       <c r="J9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="60">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="120">
       <c r="A10" s="184" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" s="180">
         <v>0</v>
@@ -5925,7 +6047,9 @@
       <c r="C10" s="181">
         <v>3</v>
       </c>
-      <c r="D10" s="182"/>
+      <c r="D10" s="182">
+        <v>0</v>
+      </c>
       <c r="E10" s="181">
         <v>3</v>
       </c>
@@ -5936,12 +6060,15 @@
       <c r="H10" s="179"/>
       <c r="I10" s="179"/>
       <c r="J10" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>90</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45">
       <c r="A11" s="185" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B11" s="180">
         <v>0</v>
@@ -5949,7 +6076,9 @@
       <c r="C11" s="181">
         <v>2</v>
       </c>
-      <c r="D11" s="182"/>
+      <c r="D11" s="182">
+        <v>0</v>
+      </c>
       <c r="E11" s="181">
         <v>2</v>
       </c>
@@ -5960,12 +6089,15 @@
       <c r="H11" s="179"/>
       <c r="I11" s="179"/>
       <c r="J11" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="45">
+        <v>93</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="75">
       <c r="A12" s="186" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B12" s="180">
         <v>0.5</v>
@@ -5973,7 +6105,9 @@
       <c r="C12" s="181">
         <v>4</v>
       </c>
-      <c r="D12" s="182"/>
+      <c r="D12" s="182">
+        <v>0</v>
+      </c>
       <c r="E12" s="181">
         <v>4</v>
       </c>
@@ -5984,12 +6118,15 @@
       <c r="H12" s="179"/>
       <c r="I12" s="179"/>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="187" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B13" s="188">
         <f>SUMPRODUCT(B8:B12,C8:C12)</f>
@@ -6001,7 +6138,7 @@
       </c>
       <c r="D13" s="190">
         <f>SUMPRODUCT(D8:D12,E8:E12)</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="E13" s="191">
         <f>SUM(E8:E12)</f>
@@ -6020,7 +6157,7 @@
     </row>
     <row r="14" spans="1:13" ht="18.399999999999999" customHeight="1">
       <c r="A14" s="292" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B14" s="292"/>
       <c r="C14" s="292"/>
@@ -6033,7 +6170,7 @@
     </row>
     <row r="15" spans="1:13" ht="45">
       <c r="A15" s="184" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B15" s="194">
         <v>1</v>
@@ -6041,7 +6178,9 @@
       <c r="C15" s="195">
         <v>2</v>
       </c>
-      <c r="D15" s="196"/>
+      <c r="D15" s="196">
+        <v>1</v>
+      </c>
       <c r="E15" s="195">
         <v>2</v>
       </c>
@@ -6054,7 +6193,7 @@
     </row>
     <row r="16" spans="1:13" ht="30">
       <c r="A16" s="184" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B16" s="199">
         <v>1</v>
@@ -6062,7 +6201,9 @@
       <c r="C16" s="200">
         <v>3</v>
       </c>
-      <c r="D16" s="201"/>
+      <c r="D16" s="201">
+        <v>1</v>
+      </c>
       <c r="E16" s="200">
         <v>3</v>
       </c>
@@ -6073,9 +6214,9 @@
       <c r="H16" s="198"/>
       <c r="I16" s="179"/>
     </row>
-    <row r="17" spans="1:10" ht="45">
+    <row r="17" spans="1:11" ht="45">
       <c r="A17" s="203" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B17" s="180">
         <v>1</v>
@@ -6083,7 +6224,9 @@
       <c r="C17" s="200">
         <v>3</v>
       </c>
-      <c r="D17" s="204"/>
+      <c r="D17" s="204">
+        <v>1</v>
+      </c>
       <c r="E17" s="200">
         <v>3</v>
       </c>
@@ -6094,9 +6237,9 @@
       <c r="H17" s="198"/>
       <c r="I17" s="179"/>
     </row>
-    <row r="18" spans="1:10" ht="30">
+    <row r="18" spans="1:11" ht="30">
       <c r="A18" s="203" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B18" s="180">
         <v>1</v>
@@ -6104,7 +6247,9 @@
       <c r="C18" s="200">
         <v>3</v>
       </c>
-      <c r="D18" s="204"/>
+      <c r="D18" s="204">
+        <v>1</v>
+      </c>
       <c r="E18" s="200">
         <v>3</v>
       </c>
@@ -6115,9 +6260,9 @@
       <c r="H18" s="198"/>
       <c r="I18" s="179"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="206" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B19" s="207">
         <v>1</v>
@@ -6125,7 +6270,9 @@
       <c r="C19" s="200">
         <v>2</v>
       </c>
-      <c r="D19" s="208"/>
+      <c r="D19" s="208">
+        <v>1</v>
+      </c>
       <c r="E19" s="200">
         <v>2</v>
       </c>
@@ -6136,9 +6283,9 @@
       <c r="H19" s="198"/>
       <c r="I19" s="179"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="209" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B20" s="188">
         <f>SUMPRODUCT(B15:B19,C15:C19)</f>
@@ -6150,7 +6297,7 @@
       </c>
       <c r="D20" s="210">
         <f>SUMPRODUCT(D15:D19,E15:E19)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E20" s="211">
         <f>SUM(E15:E19)</f>
@@ -6167,9 +6314,9 @@
       <c r="H20" s="198"/>
       <c r="I20" s="179"/>
     </row>
-    <row r="21" spans="1:10" ht="18.399999999999999" customHeight="1">
+    <row r="21" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A21" s="292" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B21" s="292"/>
       <c r="C21" s="292"/>
@@ -6180,9 +6327,9 @@
       <c r="H21" s="163"/>
       <c r="I21" s="163"/>
     </row>
-    <row r="22" spans="1:10" ht="75">
+    <row r="22" spans="1:11" ht="60">
       <c r="A22" s="185" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B22" s="180">
         <v>1</v>
@@ -6190,7 +6337,9 @@
       <c r="C22" s="200">
         <v>2</v>
       </c>
-      <c r="D22" s="182"/>
+      <c r="D22" s="182">
+        <v>1</v>
+      </c>
       <c r="E22" s="200">
         <v>2</v>
       </c>
@@ -6201,9 +6350,9 @@
       <c r="H22" s="198"/>
       <c r="I22" s="179"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="186" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B23" s="180">
         <v>1</v>
@@ -6211,7 +6360,9 @@
       <c r="C23" s="181">
         <v>1</v>
       </c>
-      <c r="D23" s="182"/>
+      <c r="D23" s="182">
+        <v>1</v>
+      </c>
       <c r="E23" s="181">
         <v>1</v>
       </c>
@@ -6222,9 +6373,9 @@
       <c r="H23" s="198"/>
       <c r="I23" s="179"/>
     </row>
-    <row r="24" spans="1:10" ht="30">
+    <row r="24" spans="1:11" ht="180">
       <c r="A24" s="186" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B24" s="180">
         <v>1</v>
@@ -6232,7 +6383,9 @@
       <c r="C24" s="181">
         <v>1</v>
       </c>
-      <c r="D24" s="182"/>
+      <c r="D24" s="182">
+        <v>0</v>
+      </c>
       <c r="E24" s="181">
         <v>1</v>
       </c>
@@ -6242,10 +6395,13 @@
       </c>
       <c r="H24" s="198"/>
       <c r="I24" s="179"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="187" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B25" s="188">
         <f>SUMPRODUCT(B22:B24,C22:C24)</f>
@@ -6257,7 +6413,7 @@
       </c>
       <c r="D25" s="190">
         <f>SUMPRODUCT(D22:D24,E22:E24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="191">
         <f>SUM(E22:E24)</f>
@@ -6274,9 +6430,9 @@
       <c r="H25" s="198"/>
       <c r="I25" s="179"/>
     </row>
-    <row r="26" spans="1:10" ht="18.399999999999999" customHeight="1">
+    <row r="26" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A26" s="292" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B26" s="292"/>
       <c r="C26" s="292"/>
@@ -6287,9 +6443,9 @@
       <c r="H26" s="163"/>
       <c r="I26" s="163"/>
     </row>
-    <row r="27" spans="1:10" ht="105">
+    <row r="27" spans="1:11" ht="270">
       <c r="A27" s="206" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B27" s="213">
         <v>0.5</v>
@@ -6297,7 +6453,9 @@
       <c r="C27" s="214">
         <v>2</v>
       </c>
-      <c r="D27" s="204"/>
+      <c r="D27" s="204">
+        <v>0.75</v>
+      </c>
       <c r="E27" s="214">
         <v>2</v>
       </c>
@@ -6308,12 +6466,15 @@
       <c r="H27" s="198"/>
       <c r="I27" s="179"/>
       <c r="J27" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="90">
+        <v>112</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="195">
       <c r="A28" s="206" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B28" s="180">
         <v>0.5</v>
@@ -6321,7 +6482,9 @@
       <c r="C28" s="181">
         <v>2</v>
       </c>
-      <c r="D28" s="204"/>
+      <c r="D28" s="204">
+        <v>0.5</v>
+      </c>
       <c r="E28" s="181">
         <v>2</v>
       </c>
@@ -6332,12 +6495,15 @@
       <c r="H28" s="198"/>
       <c r="I28" s="179"/>
       <c r="J28" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="120">
+        <v>115</v>
+      </c>
+      <c r="K28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="240">
       <c r="A29" s="206" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B29" s="180">
         <v>0</v>
@@ -6345,7 +6511,9 @@
       <c r="C29" s="181">
         <v>2</v>
       </c>
-      <c r="D29" s="204"/>
+      <c r="D29" s="204">
+        <v>0</v>
+      </c>
       <c r="E29" s="181">
         <v>2</v>
       </c>
@@ -6355,13 +6523,16 @@
       </c>
       <c r="H29" s="198"/>
       <c r="I29" s="179"/>
-      <c r="J29" s="283" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="75">
+      <c r="J29" s="282" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="75">
       <c r="A30" s="206" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B30" s="180">
         <v>1</v>
@@ -6369,7 +6540,9 @@
       <c r="C30" s="181">
         <v>3</v>
       </c>
-      <c r="D30" s="204"/>
+      <c r="D30" s="204">
+        <v>0.75</v>
+      </c>
       <c r="E30" s="181">
         <v>3</v>
       </c>
@@ -6379,10 +6552,13 @@
       </c>
       <c r="H30" s="198"/>
       <c r="I30" s="179"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="209" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B31" s="188">
         <f>SUMPRODUCT(B27:B30,C27:C30)</f>
@@ -6394,7 +6570,7 @@
       </c>
       <c r="D31" s="210">
         <f>SUMPRODUCT(D27:D30,E27:E30)</f>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="E31" s="191">
         <f>SUM(E27:E30)</f>
@@ -6411,9 +6587,9 @@
       <c r="H31" s="198"/>
       <c r="I31" s="179"/>
     </row>
-    <row r="32" spans="1:10" ht="18.399999999999999" customHeight="1">
+    <row r="32" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A32" s="292" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B32" s="292"/>
       <c r="C32" s="292"/>
@@ -6424,9 +6600,9 @@
       <c r="H32" s="163"/>
       <c r="I32" s="163"/>
     </row>
-    <row r="33" spans="1:10" ht="60">
+    <row r="33" spans="1:11" ht="120">
       <c r="A33" s="184" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B33" s="213">
         <v>0</v>
@@ -6434,7 +6610,9 @@
       <c r="C33" s="214">
         <v>1</v>
       </c>
-      <c r="D33" s="216"/>
+      <c r="D33" s="216">
+        <v>0</v>
+      </c>
       <c r="E33" s="214">
         <v>1</v>
       </c>
@@ -6445,12 +6623,15 @@
       <c r="H33" s="198"/>
       <c r="I33" s="179"/>
       <c r="J33" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="184" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B34" s="180">
         <v>1</v>
@@ -6458,7 +6639,9 @@
       <c r="C34" s="200">
         <v>1</v>
       </c>
-      <c r="D34" s="204"/>
+      <c r="D34" s="204">
+        <v>1</v>
+      </c>
       <c r="E34" s="200">
         <v>1</v>
       </c>
@@ -6469,9 +6652,9 @@
       <c r="H34" s="198"/>
       <c r="I34" s="179"/>
     </row>
-    <row r="35" spans="1:10" ht="90">
+    <row r="35" spans="1:11" ht="165">
       <c r="A35" s="203" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B35" s="180">
         <v>0</v>
@@ -6479,7 +6662,9 @@
       <c r="C35" s="200">
         <v>3</v>
       </c>
-      <c r="D35" s="204"/>
+      <c r="D35" s="204">
+        <v>0</v>
+      </c>
       <c r="E35" s="200">
         <v>3</v>
       </c>
@@ -6489,13 +6674,16 @@
       </c>
       <c r="H35" s="198"/>
       <c r="I35" s="179"/>
-      <c r="J35" s="283" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="30">
+      <c r="J35" s="282" t="s">
+        <v>128</v>
+      </c>
+      <c r="K35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30">
       <c r="A36" s="206" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B36" s="180">
         <v>1</v>
@@ -6503,7 +6691,9 @@
       <c r="C36" s="181">
         <v>3</v>
       </c>
-      <c r="D36" s="204"/>
+      <c r="D36" s="204">
+        <v>1</v>
+      </c>
       <c r="E36" s="181">
         <v>3</v>
       </c>
@@ -6514,9 +6704,9 @@
       <c r="H36" s="179"/>
       <c r="I36" s="179"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" s="209" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B37" s="219">
         <f>SUMPRODUCT(B33:B36,C33:C36)</f>
@@ -6528,7 +6718,7 @@
       </c>
       <c r="D37" s="220">
         <f>SUMPRODUCT(D33:D36,E33:E36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E37" s="191">
         <f>SUM(E33:E36)</f>
@@ -6545,9 +6735,9 @@
       <c r="H37" s="198"/>
       <c r="I37" s="179"/>
     </row>
-    <row r="38" spans="1:10" ht="18.399999999999999" customHeight="1">
+    <row r="38" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A38" s="292" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B38" s="292"/>
       <c r="C38" s="292"/>
@@ -6558,9 +6748,9 @@
       <c r="H38" s="163"/>
       <c r="I38" s="163"/>
     </row>
-    <row r="39" spans="1:10" ht="45">
+    <row r="39" spans="1:11" ht="45">
       <c r="A39" s="203" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B39" s="213">
         <v>1</v>
@@ -6568,7 +6758,9 @@
       <c r="C39" s="195">
         <v>1</v>
       </c>
-      <c r="D39" s="204"/>
+      <c r="D39" s="204">
+        <v>0.75</v>
+      </c>
       <c r="E39" s="195">
         <v>1</v>
       </c>
@@ -6579,12 +6771,15 @@
       <c r="H39" s="179"/>
       <c r="I39" s="179"/>
       <c r="J39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>132</v>
+      </c>
+      <c r="K39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="203" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B40" s="180">
         <v>1</v>
@@ -6592,7 +6787,9 @@
       <c r="C40" s="200">
         <v>4</v>
       </c>
-      <c r="D40" s="204"/>
+      <c r="D40" s="204">
+        <v>1</v>
+      </c>
       <c r="E40" s="200">
         <v>4</v>
       </c>
@@ -6603,9 +6800,9 @@
       <c r="H40" s="179"/>
       <c r="I40" s="179"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11">
       <c r="A41" s="203" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B41" s="180">
         <v>1</v>
@@ -6613,7 +6810,9 @@
       <c r="C41" s="200">
         <v>3</v>
       </c>
-      <c r="D41" s="204"/>
+      <c r="D41" s="204">
+        <v>0.5</v>
+      </c>
       <c r="E41" s="200">
         <v>3</v>
       </c>
@@ -6623,10 +6822,13 @@
       </c>
       <c r="H41" s="179"/>
       <c r="I41" s="179"/>
-    </row>
-    <row r="42" spans="1:10" ht="60">
+      <c r="K41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="60">
       <c r="A42" s="203" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B42" s="180">
         <v>0.75</v>
@@ -6644,12 +6846,15 @@
       </c>
       <c r="H42" s="179"/>
       <c r="J42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>138</v>
+      </c>
+      <c r="K42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="203" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B43" s="180">
         <v>1</v>
@@ -6657,7 +6862,9 @@
       <c r="C43" s="200">
         <v>2</v>
       </c>
-      <c r="D43" s="204"/>
+      <c r="D43" s="204">
+        <v>0.75</v>
+      </c>
       <c r="E43" s="200">
         <v>2</v>
       </c>
@@ -6667,10 +6874,13 @@
       </c>
       <c r="H43" s="179"/>
       <c r="I43" s="179"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="203" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B44" s="180">
         <v>1</v>
@@ -6678,7 +6888,9 @@
       <c r="C44" s="200">
         <v>3</v>
       </c>
-      <c r="D44" s="204"/>
+      <c r="D44" s="204">
+        <v>1</v>
+      </c>
       <c r="E44" s="200">
         <v>3</v>
       </c>
@@ -6689,9 +6901,9 @@
       <c r="H44" s="179"/>
       <c r="I44" s="179"/>
     </row>
-    <row r="45" spans="1:10" ht="30">
+    <row r="45" spans="1:11" ht="30">
       <c r="A45" s="203" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B45" s="180">
         <v>0.75</v>
@@ -6699,7 +6911,9 @@
       <c r="C45" s="200">
         <v>3</v>
       </c>
-      <c r="D45" s="204"/>
+      <c r="D45" s="204">
+        <v>0.75</v>
+      </c>
       <c r="E45" s="200">
         <v>3</v>
       </c>
@@ -6710,12 +6924,15 @@
       <c r="H45" s="179"/>
       <c r="I45" s="179"/>
       <c r="J45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="K45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="90">
       <c r="A46" s="203" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B46" s="180">
         <v>1</v>
@@ -6723,7 +6940,9 @@
       <c r="C46" s="200">
         <v>4</v>
       </c>
-      <c r="D46" s="204"/>
+      <c r="D46" s="204">
+        <v>0.25</v>
+      </c>
       <c r="E46" s="200">
         <v>4</v>
       </c>
@@ -6733,10 +6952,13 @@
       </c>
       <c r="H46" s="179"/>
       <c r="I46" s="179"/>
-    </row>
-    <row r="47" spans="1:10" ht="60">
+      <c r="K46" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="45">
       <c r="A47" s="206" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B47" s="180">
         <v>1</v>
@@ -6744,7 +6966,9 @@
       <c r="C47" s="181">
         <v>10</v>
       </c>
-      <c r="D47" s="204"/>
+      <c r="D47" s="204">
+        <v>1</v>
+      </c>
       <c r="E47" s="181">
         <v>10</v>
       </c>
@@ -6755,9 +6979,9 @@
       <c r="H47" s="179"/>
       <c r="I47" s="179"/>
     </row>
-    <row r="48" spans="1:10" ht="120">
+    <row r="48" spans="1:11" ht="240">
       <c r="A48" s="206" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B48" s="180">
         <v>0</v>
@@ -6765,7 +6989,9 @@
       <c r="C48" s="181">
         <v>6</v>
       </c>
-      <c r="D48" s="204"/>
+      <c r="D48" s="204">
+        <v>0</v>
+      </c>
       <c r="E48" s="181">
         <v>6</v>
       </c>
@@ -6776,12 +7002,15 @@
       <c r="H48" s="179"/>
       <c r="I48" s="179"/>
       <c r="J48" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>149</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="206" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B49" s="180">
         <v>1</v>
@@ -6789,7 +7018,9 @@
       <c r="C49" s="181">
         <v>3</v>
       </c>
-      <c r="D49" s="204"/>
+      <c r="D49" s="204">
+        <v>1</v>
+      </c>
       <c r="E49" s="181">
         <v>3</v>
       </c>
@@ -6800,9 +7031,9 @@
       <c r="H49" s="179"/>
       <c r="I49" s="179"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:11">
       <c r="A50" s="209" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B50" s="219">
         <f>SUMPRODUCT(B39:B49,C39:C49)</f>
@@ -6814,7 +7045,7 @@
       </c>
       <c r="D50" s="220">
         <f>SUMPRODUCT(D39:D49,E39:E49)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E50" s="191">
         <f>SUM(E39:E49)</f>
@@ -6831,9 +7062,9 @@
       <c r="H50" s="198"/>
       <c r="I50" s="179"/>
     </row>
-    <row r="51" spans="1:10" ht="18.399999999999999" customHeight="1">
+    <row r="51" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A51" s="292" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B51" s="292"/>
       <c r="C51" s="292"/>
@@ -6844,9 +7075,9 @@
       <c r="H51" s="163"/>
       <c r="I51" s="163"/>
     </row>
-    <row r="52" spans="1:10" ht="30">
+    <row r="52" spans="1:11" ht="30">
       <c r="A52" s="221" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B52" s="213">
         <v>1</v>
@@ -6854,7 +7085,9 @@
       <c r="C52" s="222">
         <v>2</v>
       </c>
-      <c r="D52" s="223"/>
+      <c r="D52" s="223">
+        <v>1</v>
+      </c>
       <c r="E52" s="222">
         <v>2</v>
       </c>
@@ -6865,9 +7098,9 @@
       <c r="H52" s="198"/>
       <c r="I52" s="179"/>
     </row>
-    <row r="53" spans="1:10" ht="30">
+    <row r="53" spans="1:11" ht="30">
       <c r="A53" s="186" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B53" s="224">
         <v>1</v>
@@ -6875,7 +7108,9 @@
       <c r="C53" s="181">
         <v>2</v>
       </c>
-      <c r="D53" s="225"/>
+      <c r="D53" s="225">
+        <v>1</v>
+      </c>
       <c r="E53" s="181">
         <v>2</v>
       </c>
@@ -6886,9 +7121,9 @@
       <c r="H53" s="179"/>
       <c r="I53" s="179"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:11" ht="45">
       <c r="A54" s="186" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B54" s="226">
         <v>0</v>
@@ -6896,7 +7131,9 @@
       <c r="C54" s="181">
         <v>1</v>
       </c>
-      <c r="D54" s="204"/>
+      <c r="D54" s="204">
+        <v>0</v>
+      </c>
       <c r="E54" s="181">
         <v>1</v>
       </c>
@@ -6906,13 +7143,16 @@
       </c>
       <c r="H54" s="179"/>
       <c r="I54" s="179"/>
-      <c r="J54" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="120">
+      <c r="J54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="120">
       <c r="A55" s="186" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B55" s="226">
         <v>0.5</v>
@@ -6920,7 +7160,9 @@
       <c r="C55" s="181">
         <v>4</v>
       </c>
-      <c r="D55" s="204"/>
+      <c r="D55" s="204">
+        <v>1</v>
+      </c>
       <c r="E55" s="181">
         <v>4</v>
       </c>
@@ -6931,33 +7173,35 @@
       <c r="H55" s="179"/>
       <c r="I55" s="179"/>
       <c r="J55" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="45">
       <c r="A56" s="185" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" s="284">
+        <v>160</v>
+      </c>
+      <c r="B56" s="283">
         <v>1</v>
       </c>
       <c r="C56" s="200">
         <v>2</v>
       </c>
-      <c r="D56" s="227"/>
+      <c r="D56" s="284">
+        <v>1</v>
+      </c>
       <c r="E56" s="200">
         <v>2</v>
       </c>
-      <c r="F56" s="228"/>
+      <c r="F56" s="227"/>
       <c r="G56" s="200">
         <v>2</v>
       </c>
-      <c r="H56" s="229"/>
+      <c r="H56" s="228"/>
       <c r="I56" s="179"/>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="230" t="s">
-        <v>94</v>
+    <row r="57" spans="1:11">
+      <c r="A57" s="229" t="s">
+        <v>98</v>
       </c>
       <c r="B57" s="188">
         <f>SUMPRODUCT(B52:B56,C52:C56)</f>
@@ -6969,24 +7213,24 @@
       </c>
       <c r="D57" s="190">
         <f>SUMPRODUCT(D52:D56,E52:E56)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E57" s="191">
         <f>SUM(E52:E56)</f>
         <v>11</v>
       </c>
-      <c r="F57" s="231">
+      <c r="F57" s="230">
         <f>SUMPRODUCT(F52:F56,G52:G56)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="232">
+      <c r="G57" s="231">
         <f>SUM(G52:G56)</f>
         <v>11</v>
       </c>
       <c r="H57" s="179"/>
       <c r="I57" s="179"/>
     </row>
-    <row r="58" spans="1:10" ht="18.399999999999999" customHeight="1">
+    <row r="58" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A58" s="292" t="s">
         <v>76</v>
       </c>
@@ -6999,11 +7243,11 @@
       <c r="H58" s="163"/>
       <c r="I58" s="163"/>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="233" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="234">
+    <row r="59" spans="1:11">
+      <c r="A59" s="232" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="233">
         <f t="shared" ref="B59:G59" si="0">B13+B20+B25+B31+B37+B50+B57</f>
         <v>73.5</v>
       </c>
@@ -7011,28 +7255,28 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D59" s="235">
+      <c r="D59" s="234">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="236">
+        <v>65.5</v>
+      </c>
+      <c r="E59" s="235">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F59" s="237">
+      <c r="F59" s="236">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="238">
+      <c r="G59" s="237">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H59" s="229"/>
+      <c r="H59" s="228"/>
       <c r="I59" s="179"/>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="233" t="s">
-        <v>145</v>
+    <row r="60" spans="1:11">
+      <c r="A60" s="232" t="s">
+        <v>162</v>
       </c>
       <c r="B60" s="298">
         <f>B59/C59</f>
@@ -7041,7 +7285,7 @@
       <c r="C60" s="298"/>
       <c r="D60" s="299">
         <f>D59/E59</f>
-        <v>0</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="E60" s="299"/>
       <c r="F60" s="300">
@@ -7049,8 +7293,8 @@
         <v>0</v>
       </c>
       <c r="G60" s="300"/>
-      <c r="H60" s="239"/>
-      <c r="I60" s="239"/>
+      <c r="H60" s="238"/>
+      <c r="I60" s="238"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -7092,8 +7336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7101,7 +7345,7 @@
     <col min="1" max="1" width="73" customWidth="1"/>
     <col min="2" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="49.28515625" customWidth="1"/>
     <col min="8" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
@@ -7119,10 +7363,10 @@
     <row r="2" spans="1:7">
       <c r="A2" s="144"/>
       <c r="B2" s="144"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="144"/>
-      <c r="F2" s="240"/>
+      <c r="F2" s="239"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="A3" s="305" t="s">
@@ -7144,15 +7388,15 @@
       <c r="E5" s="306"/>
       <c r="F5" s="306"/>
       <c r="G5" s="1" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="241" t="s">
+      <c r="A6" s="240" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="307" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C6" s="307"/>
       <c r="D6" s="307"/>
@@ -7160,234 +7404,234 @@
       <c r="F6" s="307"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="242" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="243" t="s">
+      <c r="A7" s="241" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="243" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="243" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="243" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="244" t="s">
+      <c r="C7" s="242" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="242" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="242" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="243" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="180">
-      <c r="A8" s="245" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="246">
+      <c r="A8" s="244" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="245">
         <v>0.9</v>
       </c>
-      <c r="C8" s="246">
-        <v>1</v>
-      </c>
-      <c r="D8" s="246">
+      <c r="C8" s="245">
+        <v>1</v>
+      </c>
+      <c r="D8" s="245">
         <v>16</v>
       </c>
-      <c r="E8" s="246">
+      <c r="E8" s="245">
         <f t="shared" ref="E8:E17" si="0">B8*C8*D8</f>
         <v>14.4</v>
       </c>
-      <c r="F8" s="247" t="s">
-        <v>152</v>
+      <c r="F8" s="246" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="245" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="246">
-        <v>1</v>
-      </c>
-      <c r="C9" s="246">
-        <v>1</v>
-      </c>
-      <c r="D9" s="246">
+      <c r="A9" s="244" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="245">
+        <v>1</v>
+      </c>
+      <c r="C9" s="245">
+        <v>1</v>
+      </c>
+      <c r="D9" s="245">
         <v>8</v>
       </c>
-      <c r="E9" s="246">
+      <c r="E9" s="245">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F9" s="248"/>
+      <c r="F9" s="247"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="245" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="246">
-        <v>1</v>
-      </c>
-      <c r="C10" s="246">
-        <v>1</v>
-      </c>
-      <c r="D10" s="246">
+      <c r="A10" s="244" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="245">
+        <v>1</v>
+      </c>
+      <c r="C10" s="245">
+        <v>1</v>
+      </c>
+      <c r="D10" s="245">
         <v>14</v>
       </c>
-      <c r="E10" s="246">
+      <c r="E10" s="245">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F10" s="248"/>
+      <c r="F10" s="247"/>
     </row>
     <row r="11" spans="1:7" ht="375">
-      <c r="A11" s="245" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="246">
+      <c r="A11" s="244" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="245">
         <v>0.8</v>
       </c>
-      <c r="C11" s="246">
-        <v>1</v>
-      </c>
-      <c r="D11" s="246">
+      <c r="C11" s="245">
+        <v>1</v>
+      </c>
+      <c r="D11" s="245">
         <v>12</v>
       </c>
-      <c r="E11" s="246">
+      <c r="E11" s="245">
         <f t="shared" si="0"/>
         <v>9.6000000000000014</v>
       </c>
-      <c r="F11" s="247" t="s">
-        <v>156</v>
+      <c r="F11" s="246" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="120">
-      <c r="A12" s="245" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="246">
+      <c r="A12" s="244" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="245">
         <v>0.85</v>
       </c>
-      <c r="C12" s="246">
-        <v>1</v>
-      </c>
-      <c r="D12" s="246">
+      <c r="C12" s="245">
+        <v>1</v>
+      </c>
+      <c r="D12" s="245">
         <v>8</v>
       </c>
-      <c r="E12" s="246">
+      <c r="E12" s="245">
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
-      <c r="F12" s="247" t="s">
-        <v>158</v>
+      <c r="F12" s="246" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="120">
-      <c r="A13" s="245" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="246">
-        <v>1</v>
-      </c>
-      <c r="C13" s="246">
-        <v>1</v>
-      </c>
-      <c r="D13" s="246">
+      <c r="A13" s="244" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="245">
+        <v>1</v>
+      </c>
+      <c r="C13" s="245">
+        <v>1</v>
+      </c>
+      <c r="D13" s="245">
         <v>10</v>
       </c>
-      <c r="E13" s="246">
+      <c r="E13" s="245">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F13" s="247" t="s">
-        <v>160</v>
+      <c r="F13" s="246" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75">
-      <c r="A14" s="245" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="246">
+      <c r="A14" s="244" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="245">
         <v>0.95</v>
       </c>
-      <c r="C14" s="246">
-        <v>1</v>
-      </c>
-      <c r="D14" s="246">
+      <c r="C14" s="245">
+        <v>1</v>
+      </c>
+      <c r="D14" s="245">
         <v>10</v>
       </c>
-      <c r="E14" s="246">
+      <c r="E14" s="245">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="F14" s="247" t="s">
-        <v>162</v>
+      <c r="F14" s="246" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="210">
-      <c r="A15" s="245" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="246">
+      <c r="A15" s="244" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="245">
         <v>0.9</v>
       </c>
-      <c r="C15" s="246">
-        <v>1</v>
-      </c>
-      <c r="D15" s="246">
+      <c r="C15" s="245">
+        <v>1</v>
+      </c>
+      <c r="D15" s="245">
         <v>8</v>
       </c>
-      <c r="E15" s="246">
+      <c r="E15" s="245">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
-      <c r="F15" s="247" t="s">
-        <v>164</v>
+      <c r="F15" s="246" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="315">
-      <c r="A16" s="245" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" s="246">
+      <c r="A16" s="244" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="245">
         <v>0.95</v>
       </c>
-      <c r="C16" s="246">
-        <v>1</v>
-      </c>
-      <c r="D16" s="246">
+      <c r="C16" s="245">
+        <v>1</v>
+      </c>
+      <c r="D16" s="245">
         <v>8</v>
       </c>
-      <c r="E16" s="246">
+      <c r="E16" s="245">
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="F16" s="247" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="330">
-      <c r="A17" s="245" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="246">
+      <c r="F16" s="246" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="330">
+      <c r="A17" s="244" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="245">
         <v>0.75</v>
       </c>
-      <c r="C17" s="246">
-        <v>1</v>
-      </c>
-      <c r="D17" s="246">
+      <c r="C17" s="245">
+        <v>1</v>
+      </c>
+      <c r="D17" s="245">
         <v>6</v>
       </c>
-      <c r="E17" s="246">
+      <c r="E17" s="245">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="F17" s="247" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="249" t="s">
-        <v>169</v>
+      <c r="F17" s="246" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="248" t="s">
+        <v>186</v>
       </c>
       <c r="B18" s="308"/>
       <c r="C18" s="308"/>
@@ -7395,29 +7639,29 @@
         <f>SUM(D8:D17)</f>
         <v>100</v>
       </c>
-      <c r="E18" s="250">
+      <c r="E18" s="249">
         <f>SUM(E8:E17)/D18 - E20*D20 - E19*D19</f>
         <v>0.91599999999999993</v>
       </c>
-      <c r="F18" s="251"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="252" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="253">
+      <c r="F18" s="250"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="251" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="252">
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="252" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="253">
+    <row r="20" spans="1:7">
+      <c r="A20" s="251" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="252">
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="23.25" customHeight="1">
+    <row r="21" spans="1:7" ht="23.25" customHeight="1">
       <c r="A21" s="301" t="s">
         <v>1</v>
       </c>
@@ -7426,240 +7670,307 @@
       <c r="D21" s="301"/>
       <c r="E21" s="301"/>
       <c r="F21" s="301"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="254" t="s">
+      <c r="G21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="253" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="302"/>
+      <c r="B22" s="302" t="s">
+        <v>190</v>
+      </c>
       <c r="C22" s="302"/>
       <c r="D22" s="302"/>
       <c r="E22" s="302"/>
       <c r="F22" s="302"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="254" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="254" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="253" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="253" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="254" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="254" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="254" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="255" t="s">
+      <c r="C23" s="253" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="253" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="253" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="254" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A24" s="254" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="256"/>
-      <c r="C24" s="256"/>
-      <c r="D24" s="254">
+    <row r="24" spans="1:7" ht="105">
+      <c r="A24" s="253" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="255">
+        <v>0.93</v>
+      </c>
+      <c r="C24" s="255">
+        <v>1</v>
+      </c>
+      <c r="D24" s="253">
         <v>8</v>
       </c>
-      <c r="E24" s="254">
+      <c r="E24" s="253">
         <f t="shared" ref="E24:E34" si="1">B24*C24*D24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="255"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="254" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="256"/>
-      <c r="C25" s="256"/>
-      <c r="D25" s="254">
+        <v>7.44</v>
+      </c>
+      <c r="F24" s="254" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="405">
+      <c r="A25" s="253" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="255">
+        <v>0.8</v>
+      </c>
+      <c r="C25" s="255">
+        <v>1</v>
+      </c>
+      <c r="D25" s="253">
         <v>16</v>
       </c>
-      <c r="E25" s="254">
+      <c r="E25" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="255"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="254" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="256"/>
-      <c r="C26" s="256"/>
-      <c r="D26" s="254">
+        <v>12.8</v>
+      </c>
+      <c r="F25" s="254" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="150">
+      <c r="A26" s="253" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="255">
+        <v>0.85</v>
+      </c>
+      <c r="C26" s="255">
+        <v>1</v>
+      </c>
+      <c r="D26" s="253">
         <v>8</v>
       </c>
-      <c r="E26" s="254">
+      <c r="E26" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="255"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="254" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" s="256"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="254">
+        <v>6.8</v>
+      </c>
+      <c r="F26" s="254" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60">
+      <c r="A27" s="253" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="255">
+        <v>0.95</v>
+      </c>
+      <c r="C27" s="255">
+        <v>1</v>
+      </c>
+      <c r="D27" s="253">
         <v>6</v>
       </c>
-      <c r="E27" s="254">
+      <c r="E27" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="255"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="254" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="256"/>
-      <c r="C28" s="256"/>
-      <c r="D28" s="254">
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="F27" s="254" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45">
+      <c r="A28" s="253" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="255">
+        <v>0.95</v>
+      </c>
+      <c r="C28" s="255">
+        <v>1</v>
+      </c>
+      <c r="D28" s="253">
         <v>8</v>
       </c>
-      <c r="E28" s="254">
+      <c r="E28" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="255"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="254" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="256"/>
-      <c r="C29" s="256"/>
-      <c r="D29" s="254">
+        <v>7.6</v>
+      </c>
+      <c r="F28" s="254" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="253" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="255">
+        <v>1</v>
+      </c>
+      <c r="C29" s="255">
+        <v>1</v>
+      </c>
+      <c r="D29" s="253">
         <v>10</v>
       </c>
-      <c r="E29" s="254">
+      <c r="E29" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="255"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="254" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="256"/>
-      <c r="C30" s="256"/>
-      <c r="D30" s="254">
+        <v>10</v>
+      </c>
+      <c r="F29" s="254"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="253" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="255">
+        <v>1</v>
+      </c>
+      <c r="C30" s="255">
+        <v>1</v>
+      </c>
+      <c r="D30" s="253">
         <v>8</v>
       </c>
-      <c r="E30" s="254">
+      <c r="E30" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="255"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="254" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="256"/>
-      <c r="C31" s="256"/>
-      <c r="D31" s="254">
         <v>8</v>
       </c>
-      <c r="E31" s="254">
+      <c r="F30" s="254"/>
+    </row>
+    <row r="31" spans="1:7" ht="75">
+      <c r="A31" s="253" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="255">
+        <v>1</v>
+      </c>
+      <c r="C31" s="255">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="253">
+        <v>8</v>
+      </c>
+      <c r="E31" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="255"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="254" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="256"/>
-      <c r="C32" s="256"/>
-      <c r="D32" s="254">
+        <v>6</v>
+      </c>
+      <c r="F31" s="254" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="210">
+      <c r="A32" s="253" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="255">
+        <v>0.94</v>
+      </c>
+      <c r="C32" s="255">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="253">
         <v>8</v>
       </c>
-      <c r="E32" s="254">
+      <c r="E32" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="255"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="254" t="s">
-        <v>181</v>
-      </c>
-      <c r="B33" s="256"/>
-      <c r="C33" s="256"/>
-      <c r="D33" s="254">
+        <v>5.64</v>
+      </c>
+      <c r="F32" s="254" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="105">
+      <c r="A33" s="253" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" s="255">
+        <v>0.95</v>
+      </c>
+      <c r="C33" s="255">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="253">
         <v>8</v>
       </c>
-      <c r="E33" s="254">
+      <c r="E33" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="255"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="254" t="s">
-        <v>182</v>
-      </c>
-      <c r="B34" s="256"/>
-      <c r="C34" s="256"/>
-      <c r="D34" s="254">
+        <v>3.8</v>
+      </c>
+      <c r="F33" s="254" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="45">
+      <c r="A34" s="253" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="255">
+        <v>1</v>
+      </c>
+      <c r="C34" s="255">
+        <v>0.25</v>
+      </c>
+      <c r="D34" s="253">
         <v>12</v>
       </c>
-      <c r="E34" s="254">
+      <c r="E34" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="255"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="254" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="257" t="s">
-        <v>169</v>
-      </c>
-      <c r="B35" s="257"/>
-      <c r="C35" s="258"/>
-      <c r="D35" s="258">
+      <c r="A35" s="256" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="256"/>
+      <c r="C35" s="257"/>
+      <c r="D35" s="257">
         <f>SUM(D24:D34)</f>
         <v>100</v>
       </c>
-      <c r="E35" s="259">
+      <c r="E35" s="258">
         <f>SUM(E24:E34)/D35 -E36*D36 -E37*D37-E38*D38</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="260"/>
+        <v>0.76780000000000004</v>
+      </c>
+      <c r="F35" s="259"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="261" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="262"/>
-      <c r="D36" s="263">
+      <c r="A36" s="260" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="261"/>
+      <c r="D36" s="262">
         <v>0.15</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="261" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" s="264">
+      <c r="A37" s="260" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="263">
         <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="261" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" s="265">
+      <c r="A38" s="260" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="264">
         <v>0.05</v>
       </c>
     </row>
@@ -7674,7 +7985,7 @@
       <c r="F39" s="303"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="266" t="s">
+      <c r="A40" s="265" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="304"/>
@@ -7684,212 +7995,212 @@
       <c r="F40" s="304"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="267" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" s="268" t="s">
+      <c r="A41" s="266" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="268" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="268" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="268" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" s="269" t="s">
+      <c r="C41" s="267" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="267" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="267" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" s="268" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="270" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" s="271"/>
-      <c r="C42" s="271"/>
-      <c r="D42" s="271">
+      <c r="A42" s="269" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="270"/>
+      <c r="C42" s="270"/>
+      <c r="D42" s="270">
         <v>12</v>
       </c>
-      <c r="E42" s="271">
+      <c r="E42" s="270">
         <f t="shared" ref="E42:E51" si="2">B42*C42*D42</f>
         <v>0</v>
       </c>
-      <c r="F42" s="269"/>
+      <c r="F42" s="268"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="270" t="s">
-        <v>185</v>
-      </c>
-      <c r="B43" s="271"/>
-      <c r="C43" s="271"/>
-      <c r="D43" s="271">
+      <c r="A43" s="269" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" s="270"/>
+      <c r="C43" s="270"/>
+      <c r="D43" s="270">
         <v>16</v>
       </c>
-      <c r="E43" s="271">
+      <c r="E43" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F43" s="269"/>
+      <c r="F43" s="268"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="270" t="s">
+      <c r="A44" s="269" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="270"/>
+      <c r="C44" s="270"/>
+      <c r="D44" s="270">
+        <v>8</v>
+      </c>
+      <c r="E44" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="271"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="269" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45" s="270"/>
+      <c r="C45" s="270"/>
+      <c r="D45" s="270">
+        <v>12</v>
+      </c>
+      <c r="E45" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="268"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="269" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" s="270"/>
+      <c r="C46" s="270"/>
+      <c r="D46" s="270">
+        <v>10</v>
+      </c>
+      <c r="E46" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="268"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="269" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="270"/>
+      <c r="C47" s="270"/>
+      <c r="D47" s="270">
+        <v>14</v>
+      </c>
+      <c r="E47" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="268"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="272" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48" s="270"/>
+      <c r="C48" s="270"/>
+      <c r="D48" s="273">
+        <v>6</v>
+      </c>
+      <c r="E48" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="274"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="272" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" s="270"/>
+      <c r="C49" s="270"/>
+      <c r="D49" s="273">
+        <v>8</v>
+      </c>
+      <c r="E49" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="274"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="272" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="270"/>
+      <c r="C50" s="270"/>
+      <c r="D50" s="273">
+        <v>6</v>
+      </c>
+      <c r="E50" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="274"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="272" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="270"/>
+      <c r="C51" s="270"/>
+      <c r="D51" s="273">
+        <v>8</v>
+      </c>
+      <c r="E51" s="270">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="274"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="275" t="s">
         <v>186</v>
       </c>
-      <c r="B44" s="271"/>
-      <c r="C44" s="271"/>
-      <c r="D44" s="271">
-        <v>8</v>
-      </c>
-      <c r="E44" s="271">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="272"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="270" t="s">
-        <v>187</v>
-      </c>
-      <c r="B45" s="271"/>
-      <c r="C45" s="271"/>
-      <c r="D45" s="271">
-        <v>12</v>
-      </c>
-      <c r="E45" s="271">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="269"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="270" t="s">
-        <v>188</v>
-      </c>
-      <c r="B46" s="271"/>
-      <c r="C46" s="271"/>
-      <c r="D46" s="271">
-        <v>10</v>
-      </c>
-      <c r="E46" s="271">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="269"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="270" t="s">
-        <v>189</v>
-      </c>
-      <c r="B47" s="271"/>
-      <c r="C47" s="271"/>
-      <c r="D47" s="271">
-        <v>14</v>
-      </c>
-      <c r="E47" s="271">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="269"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="273" t="s">
-        <v>190</v>
-      </c>
-      <c r="B48" s="271"/>
-      <c r="C48" s="271"/>
-      <c r="D48" s="274">
-        <v>6</v>
-      </c>
-      <c r="E48" s="271">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="275"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="273" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" s="271"/>
-      <c r="C49" s="271"/>
-      <c r="D49" s="274">
-        <v>8</v>
-      </c>
-      <c r="E49" s="271">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="275"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="273" t="s">
-        <v>192</v>
-      </c>
-      <c r="B50" s="271"/>
-      <c r="C50" s="271"/>
-      <c r="D50" s="274">
-        <v>6</v>
-      </c>
-      <c r="E50" s="271">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="275"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="273" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" s="271"/>
-      <c r="C51" s="271"/>
-      <c r="D51" s="274">
-        <v>8</v>
-      </c>
-      <c r="E51" s="271">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="275"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="276" t="s">
-        <v>169</v>
-      </c>
-      <c r="B52" s="277"/>
-      <c r="C52" s="277"/>
-      <c r="D52" s="278">
+      <c r="B52" s="276"/>
+      <c r="C52" s="276"/>
+      <c r="D52" s="277">
         <f>SUM(D42:D51)</f>
         <v>100</v>
       </c>
-      <c r="E52" s="279">
+      <c r="E52" s="278">
         <f>SUM(E42:E51)/D52 - D53*E53  - D54*E54 - D55*E55</f>
         <v>0</v>
       </c>
-      <c r="F52" s="280"/>
+      <c r="F52" s="279"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="281" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="264">
+      <c r="A53" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="263">
         <v>0.15</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="281" t="s">
-        <v>171</v>
-      </c>
-      <c r="D54" s="264">
+      <c r="A54" s="280" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="263">
         <v>0.2</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="282" t="s">
-        <v>183</v>
-      </c>
-      <c r="D55" s="265">
+      <c r="A55" s="281" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" s="264">
         <v>0.05</v>
       </c>
     </row>
@@ -7976,7 +8287,7 @@
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
@@ -8002,7 +8313,7 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="65" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -8015,7 +8326,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="65" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -8028,7 +8339,7 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="65" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -8041,7 +8352,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="65" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -8054,7 +8365,7 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="65" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
@@ -8067,7 +8378,7 @@
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="65" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
@@ -8080,7 +8391,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="65" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
@@ -8093,7 +8404,7 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="65" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
@@ -8106,7 +8417,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="65" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
@@ -8119,7 +8430,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="65" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
@@ -8132,7 +8443,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="65" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -8145,7 +8456,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="65" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
@@ -8158,7 +8469,7 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="65" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
@@ -8171,7 +8482,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="65" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -8184,7 +8495,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="65" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
@@ -8197,7 +8508,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="A21" s="65" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
@@ -8210,7 +8521,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="65" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
@@ -8223,7 +8534,7 @@
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="65" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
@@ -8236,7 +8547,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="65" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
@@ -8249,7 +8560,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="65" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
@@ -8262,7 +8573,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="65" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
@@ -8275,7 +8586,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="72" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
@@ -8624,7 +8935,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="91" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="B50" s="138">
         <f>(B$31+B$47)/2</f>
